--- a/RESTfulBooker_TestCases.xlsx
+++ b/RESTfulBooker_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a827eb19f6af8c0a/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1D5F9B7-7364-4C80-A591-B4241934F3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="8_{D1D5F9B7-7364-4C80-A591-B4241934F3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FC38D85-3C3E-4BAB-B9FA-0D359845196A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F7A9AE-908D-4348-93A8-2A647AD5C799}"/>
   </bookViews>
@@ -34,88 +34,870 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>Sr No</t>
-  </si>
-  <si>
-    <t>Test Cases</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="102">
   <si>
     <t>Verify that a new booking can be created successfully</t>
   </si>
   <si>
-    <t>Ensure all required fields (e.g., dates, guest details) are validated properly.</t>
-  </si>
-  <si>
-    <t>Test with valid and invalid input data (e.g., invalid date format, missing required fields).</t>
-  </si>
-  <si>
-    <t>Retrieve a booking by its ID and verify the returned data</t>
-  </si>
-  <si>
     <t>Test with both valid and invalid booking IDs (e.g., non-existent ID)</t>
   </si>
   <si>
-    <t>Modify an existing booking and verify that the changes are reflected.</t>
-  </si>
-  <si>
-    <t>Test with valid updates (e.g., change of dates) and invalid updates (e.g., invalid date format).</t>
-  </si>
-  <si>
-    <t>Delete a booking by ID and verify it no longer exists.</t>
-  </si>
-  <si>
-    <t>Test boundary values for dates (e.g., minimum and maximum allowed dates).</t>
-  </si>
-  <si>
-    <t>Attempt to create bookings when the hotel is fully booked.</t>
-  </si>
-  <si>
-    <t>Verify error handling for incorrect endpoints or methods (e.g., sending POST request to a GET endpoint).</t>
-  </si>
-  <si>
-    <t>Test different user roles (e.g., admin vs regular user) and verify access restrictions.</t>
-  </si>
-  <si>
-    <t>Ensure only authorized users can perform sensitive actions (e.g., create, update, delete bookings).</t>
-  </si>
-  <si>
-    <t>Ensure correct filtering and sorting of results.</t>
-  </si>
-  <si>
-    <t>Verify that after the payment process is successful the booking is created</t>
-  </si>
-  <si>
-    <t>Verify that additional needs in the booking is an optional field</t>
-  </si>
-  <si>
-    <t>Verify when any of the mandatory field is left blank while updating booking</t>
-  </si>
-  <si>
-    <t>Test API endpoints requiring authentication (e.g., login/logout).</t>
-  </si>
-  <si>
-    <t>Simulate concurrent requests to create, update, or delete bookings.</t>
-  </si>
-  <si>
-    <t>Measure API response times under normal load and peak load conditions.</t>
-  </si>
-  <si>
-    <t>Check for any resource leaks or performance degradation over time.</t>
-  </si>
-  <si>
-    <t>Verify API responses do not expose sensitive information (e.g., passwords).</t>
-  </si>
-  <si>
-    <t>Check for proper handling of authentication tokens (e.g., expiration, renewal).</t>
+    <t>Scenario TID</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Pre Condition</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>1.Login to POSTMAN tool
+2.In POSTMan tool ,Import the Curl command using Raw text formal
+curl https://restful-booker.herokuapp.com/booking
+3.Click send request button and Verify the response body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Successful Login
+2.Successful Navigation
+3.The Response body must show list of all bookings
+</t>
+  </si>
+  <si>
+    <t>1.Successful Login
+2.Successful Navigation
+3.The Response code must be 200</t>
+  </si>
+  <si>
+    <t>Verify if response time is less than 200ms</t>
+  </si>
+  <si>
+    <t>1.Successful Login
+2.Successful Navigation.
+3.The Response code must be 200                                     4.Response time should be less than 200ms.</t>
+  </si>
+  <si>
+    <t>Verify if User is able to Fetch All bookings successfully</t>
+  </si>
+  <si>
+    <t>1.Login to POSTMAN tool
+2.In POSTMan tool ,Import the Curl command using Raw text formal
+curl https://restful-booker.herokuapp.com/booking/x
+x--&gt;x can be your preferred booking id 
+3.Click send request button and Verify the response body</t>
+  </si>
+  <si>
+    <t>1.Successful Login
+2.Successful Navigation
+3.The API must fetch all bookings</t>
+  </si>
+  <si>
+    <t>Verify  JSON Response for Get all Booking</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Login to POSTMAN tool
+2.In POSTMan tool ,Import the Curl command using Raw text formal
+curl -i https://restful-booker.herokuapp.com/booking
+3.Click send request button and Verify the response body
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Scripting:
+pm.test("Body matches string", function () {
+    pm.expect(pm.response.text()).to.include("bookingid");
+});
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login to POSTMAN tool
+2.In POSTMan tool ,Import the Curl command using Raw text formal
+curl -i https://restful-booker.herokuapp.com/booking
+3.Click send request button and Verify the response body
+</t>
+  </si>
+  <si>
+    <t>Should show some error like "Not Found" on adding invalid data</t>
+  </si>
+  <si>
+    <t>Verify on adding long names on the firstname field</t>
+  </si>
+  <si>
+    <t>Should show some error on adding invalid data</t>
+  </si>
+  <si>
+    <t>Verify on adding special char in the firstname or lastname field</t>
+  </si>
+  <si>
+    <t>Verify on adding data in the input field in some other language</t>
+  </si>
+  <si>
+    <t>Verify on adding invalid price</t>
+  </si>
+  <si>
+    <t>Verify on adding invalid URL</t>
+  </si>
+  <si>
+    <t>Verify on leaving all fields empty</t>
+  </si>
+  <si>
+    <t>Verify on leaving the mandatory field blank</t>
+  </si>
+  <si>
+    <t>Verify on adding some invalid date in the date field</t>
+  </si>
+  <si>
+    <t>Verify on adding past dates</t>
+  </si>
+  <si>
+    <t>Verify on adding numbers in firstname or lastname</t>
+  </si>
+  <si>
+    <t>Verify that character is not allowed in price field</t>
+  </si>
+  <si>
+    <t>Verify depositpaid returns true or false value</t>
+  </si>
+  <si>
+    <t>Verify additional needs is optional field</t>
+  </si>
+  <si>
+    <t>Should return true or false value</t>
+  </si>
+  <si>
+    <t>Should not show any error if left blank</t>
+  </si>
+  <si>
+    <t>Verify date is mandatory field</t>
+  </si>
+  <si>
+    <t>Should show error if left blank</t>
+  </si>
+  <si>
+    <t>Verify price is mandatory field</t>
+  </si>
+  <si>
+    <t>Verify if Response time is lessthan 200ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Successful Login
+2.Successful Navigation
+3.Successful action and The Response time must be less than 200ms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Successful Login
+2.Successful Navigation
+3.The API must fetch all bookings
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Get All Booking  status code When all bookings are deleted </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Successful Login
+2.Successful Navigation
+3.The Status code must be 404 for all booking deleted
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Status code for Get All bookings when all booking id is fetched </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Successful Login
+2.Successful Navigation
+3.The Status code must be 200 for all booking deleted
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Successful Login
+2.Successful Navigation
+3.Successful action and The Response time must be less than 200ms
+</t>
+  </si>
+  <si>
+    <t>Verify if User is able to Fetch Single bookings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login to POSTMAN tool
+2.In POSTMan tool ,Import the Curl command using Raw text formal
+curl -i https://restful-booker.herokuapp.com/booking/x
+x--&gt;x can be your preferred booking id 
+3.Click send request button and Verify the response body
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Successful Login
+2.Successful Navigation
+3.The API must fetch the single booking which you requested
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Successful Login
+2.Successful Navigation
+3.The Response body must show the booking requested
+</t>
+  </si>
+  <si>
+    <t>1.Successful Login
+2.Successful Navigation
+3.The Response code must be 404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login to POSTMAN tool
+2.In POSTMan tool ,Import the Curl command using Raw text formal
+curl -i https://restful-booker.herokuapp.com/booking/x
+x--&gt;x can be your preferred booking id 
+3.Click send request button and Verify the response code
+Scripting:
+pm.test(""Status code is 200"", function () {
+    pm.response.to.have.status(200);
+});
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Login to POSTMAN tool
+2.In POSTMan tool ,Import the Curl command using Raw text formal
+curl -i https://restful-booker.herokuapp.com/booking
+3.Click send request button and Verify if Response time in less than 200ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scripting:
+pm.test("Response time is less than 200ms", function () {
+    pm.expect(pm.response.responseTime).to.be.below(200);
+});</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Login to POSTMAN tool
+2.In POSTMan tool ,Import the Curl command using Raw text formal
+curl -i https://restful-booker.herokuapp.com/booking
+3.Click send request button and Verify the response body
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scripting:
+pm.test("Body matches string", function () {
+    pm.expect(pm.response.text()).to.include("bookingid");
+});</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Login to POSTMAN tool
+2.In POSTMan tool ,Import the Curl command using Raw text formal
+curl -i https://restful-booker.herokuapp.com/booking
+3.Click send request button and Verify the status code when all bookings are deleted
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pm.test("Status code is 404", function () {
+    pm.response.to.have.status(404);
+});
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Login to POSTMAN tool
+2.In POSTMan tool ,Import the Curl command using Raw text formal
+curl -i https://restful-booker.herokuapp.com/booking
+3.Click send request button and Verify the status code when all bookings are fetched successfully
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scripting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pm.test("Status code is 200", function () {
+    pm.response.to.have.status(200);
+});</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Login to POSTMAN tool
+2.In POSTMan tool ,Import the Curl command using Raw text formal
+curl -i https://restful-booker.herokuapp.com/booking/x
+x--&gt;x can be your preferred booking id 
+3.Click send request button and Verify if Response time in less than 200ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Scripting:
+pm.test("Response time is less than 200ms", function () {
+    pm.expect(pm.response.responseTime).to.be.below(200);
+});
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Login to POSTMAN tool
+2.In POSTMan tool ,Import the Curl command using Raw text formal
+curl -i https://restful-booker.herokuapp.com/booking/x
+x--&gt;x can be your preferred booking id 
+3.Click send request button and Verify the response code
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scripting:
+pm.test("Status code is 404", function () {
+    pm.response.to.have.status(404);
+});</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify JSON Response for Get Single Booking Booking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify status code When all bookings are deleted </t>
+  </si>
+  <si>
+    <t>Verify Status code for Get Single booking</t>
+  </si>
+  <si>
+    <t>Verify JSON Response for Successful POST Request</t>
+  </si>
+  <si>
+    <t>1.Login to POSTMAN tool
+2.In POSTMan tool ,Import the Curl command using Raw text format
+https://restful-booker.herokuapp.com/booking
+3.Click send request button and Verify the response</t>
+  </si>
+  <si>
+    <t>1.Successful Login
+2.Successful Navigation
+3.The Response must be
+{
+    "bookingid": 1,
+    "booking": {
+        "firstname": "Jim",
+        "lastname": "Brown",
+        "totalprice": 111,
+        "depositpaid": true,
+        "bookingdates": {
+            "checkin": "2018-01-01",
+            "checkout": "2019-01-01"
+        },
+        "additionalneeds": "Breakfast"
+    }
+}</t>
+  </si>
+  <si>
+    <t>Verify the status code for successful POST Request</t>
+  </si>
+  <si>
+    <t>1.Login to POSTMAN tool
+2.In POSTMan tool ,Import the Curl command using Raw text format
+https://restful-booker.herokuapp.com/booking
+3.Click send request button and Verify the response code
+Scripting:
+pm.test(""""Status code is 200"""", function () {
+    pm.response.to.have.status(200);
+});</t>
+  </si>
+  <si>
+    <t>Verify if user is not  able to create new resource using POST request when Request json body sent has only 4 out of 8 fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login to POSTMAN tool
+2.In POSTMan tool ,Import the Curl command using Raw text format
+https://restful-booker.herokuapp.com/booking
+3.
+In request body Enter only 4 out of 8 fields
+Click send request button and Verify the response code
+</t>
+  </si>
+  <si>
+    <t>Verify the status code of POST request when Request is sent with Request json body containing only 4 out of 8 fields</t>
+  </si>
+  <si>
+    <t>Verify the Response body for Successful PUT request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login to POSTMAN tool
+2.In POSTMan tool ,Import the Curl command using Raw text format
+https://restful-booker.herokuapp.com/booking/:id
+id=tester preference
+curl command:
+curl -X PUT \
+  https://restful-booker.herokuapp.com/booking/1 \
+  -H 'Content-Type: application/json' \
+  -H 'Accept: application/json' \
+  -H 'Cookie: token=abc123' \
+  -d '{
+    "firstname" : "James",
+    "lastname" : "Brown",
+    "totalprice" : 111,
+    "depositpaid" : true,
+    "bookingdates" : {
+        "checkin" : "2018-01-01",
+        "checkout" : "2019-01-01"
+    },
+    "additionalneeds" : "Breakfast"
+}'
+3.Click send request button and Verify the response body and code
+</t>
+  </si>
+  <si>
+    <t>1.Successful Login
+2.Successful Navigation
+3.The Response code must be 200 
+and response body must be
+HTTP/1.1 200 OK
+{
+    "firstname" : "James",
+    "lastname" : "Brown",
+    "totalprice" : 111,
+    "depositpaid" : true,
+    "bookingdates" : {
+        "checkin" : "2018-01-01",
+        "checkout" : "2019-01-01"
+    },
+    "additionalneeds" : "Breakfast"
+}</t>
+  </si>
+  <si>
+    <t>Verify the Response header for successful PUT request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login to POSTMAN tool
+2.In POSTMan tool ,Import the Curl command using Raw text format
+https://restful-booker.herokuapp.com/booking/:id
+id=tester preference
+curl -X PUT \
+  https://restful-booker.herokuapp.com/booking/1 \
+  -H 'Content-Type: application/json' \
+  -H 'Accept: application/json' \
+  -H 'Cookie: token=abc123' \
+  -d '{
+    "firstname" : "Virat",
+    "lastname" : "Kohli",
+    "totalprice" : 111,
+    "depositpaid" : true,
+    "bookingdates" : {
+        "checkin" : "2018-01-01",
+        "checkout" : "2019-01-01"
+    },
+    "additionalneeds" : "Breakfast"
+}'3.Click send request button and Verify the response header
+Scripting:
+pm.test("Content-Type is present", function () {
+    pm.response.to.have.header("Content-Type");
+});
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Successful Login
+2.Successful Navigation
+3.The Response code must be 200 
+and response header must be present
+Scripting:
+pm.test("Content-Type is present", function () {
+    pm.response.to.have.header("Content-Type");
+});
+</t>
+  </si>
+  <si>
+    <t>Verify the Status code for successful PUT request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login to POSTMAN tool
+2.In POSTMan tool ,Import the Curl command using Raw text format
+https://restful-booker.herokuapp.com/booking/:id
+id=tester preference
+curl -X PUT \
+  https://restful-booker.herokuapp.com/booking/1 \
+  -H 'Content-Type: application/json' \
+  -H 'Accept: application/json' \
+  -H 'Cookie: token=abc123' \
+  -d '{
+    "firstname" : "Virat",
+    "lastname" : "Kohli",
+    "totalprice" : 111,
+    "depositpaid" : true,
+    "bookingdates" : {
+        "checkin" : "2018-01-01",
+        "checkout" : "2019-01-01"
+    },
+    "additionalneeds" : "Breakfast"
+}'3.Click send request button and Verify the status code
+Scripting:
+pm.test("Status code for successful PUT request is 200", function () {
+    pm.response.to.have.status(200);
+});
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Successful Login
+2.Successful Navigation
+3.The Response code must be 200 
+</t>
+  </si>
+  <si>
+    <t>Verify if the user is not able to do partial update using PUT request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login  to POSTMAN tool
+2.Import the curl command using raw text format
+curl -X PUT \
+  https://restful-booker.herokuapp.com/booking/1 \
+  -H 'Content-Type: application/json' \
+  -H 'Accept: application/json' \
+  -H 'Cookie: token=abc123' \
+  -d '{
+    "firstname" : "James",
+    "lastname" : "Brown",
+    "totalprice" : 111,
+   // "depositpaid" : true,
+    "bookingdates" : {
+        "checkin" : "2018-01-01",
+        "checkout" : "2019-01-01"
+    },
+    "additionalneeds" : "Breakfast"
+}'
+3.Click send request button.Verify if user is not able to successfully update 
+the booking
+POSTMAN Scripting:
+pm.test("Status code is 400", function () {
+    pm.response.to.have.status(400);
+});
+pm.test("Status code name has string", function () {
+    pm.response.to.have.status("Bad Request");
+});
+</t>
+  </si>
+  <si>
+    <t>1.Sucessful login
+2.Import request successful
+3.The user must not be able to update the resource bookingid
+and response statuscode must be 400 bad request</t>
+  </si>
+  <si>
+    <t>Verify the status code that user gets for trying Partial update using PUT request</t>
+  </si>
+  <si>
+    <t>Verify the JSON Response body for PATCH request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login  to POSTMAN tool
+2.Import the curl command using raw text format
+curl -X PUT \
+  https://restful-booker.herokuapp.com/booking/938 \
+  -H 'Content-Type: application/json' \
+  -H 'Accept: application/json' \
+  -H 'Cookie: token=abc123' \
+  -d '{
+    "firstname" : "QATesterFirstnam",
+    "lastname" : "QAtesterLastName"
+}'
+3.Veirfy if  user is  be able to partially update resource booking 938 successfully
+4.verify the response body of patch request
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Sucessful login
+2.Import request successful
+3.The user must be able to do Patch update successfully and response status code must be 200 OK
+4.The response body must be as below
+{
+    "firstname": "QATesterFirstName",
+    "lastname": "QATesterLastName",
+    "totalprice": 0,
+    "depositpaid": false,
+    "bookingdates": {
+        "checkin": "2018-01-07",
+        "checkout": "2019-01-07"
+    },
+    "additionalneeds": "Breakfast,Lunch,Dinner"
+}
+</t>
+  </si>
+  <si>
+    <t>Verify the Response header for PATCH Request</t>
+  </si>
+  <si>
+    <t>Verify the status code for successful PATCH Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login  to POSTMAN tool
+2.Import the curl command using raw text format
+curl -X PUT \
+  https://restful-booker.herokuapp.com/booking/938 \
+  -H 'Content-Type: application/json' \
+  -H 'Accept: application/json' \
+  -H 'Cookie: token=abc123' \
+  -d '{
+    "firstname" : "QATesterFirstnam",
+    "lastname" : "QAtesterLastName"
+}'
+3.Verify if  user is  be able to partially update resource booking 938 successfully
+4.verify the  status code for successful patch request
+POSTMAN SCRIPT:
+pm.test("Successful PATCH Request", function () {
+    pm.expect(pm.response.code).to.be.oneOf([200, 200]);
+});
+</t>
+  </si>
+  <si>
+    <t>1.Sucessful login
+2.Import request successful
+3.The user must be able to do Patch update successfully and response status code must be 200 OK
+4.The response body must be as below
+{
+    ""firstname"": ""QATesterFirstName"",
+    ""lastname"": ""QATesterLastName"",
+    ""totalprice"": 0,
+    ""depositpaid"": false,
+    ""bookingdates"": {
+        ""checkin"": ""2018-01-07"",
+        ""checkout"": ""2019-01-07""
+    },
+    ""additionalneeds"": ""Breakfast,Lunch,Dinner""
+}</t>
+  </si>
+  <si>
+    <t>Verify if user is able to perform PATCH request successfully without authorization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login  to POSTMAN tool
+2.Import the curl command using raw text format
+curl -X PUT \
+  https://restful-booker.herokuapp.com/booking/938 \
+  -H 'Content-Type: application/json' \
+  -H 'Accept: application/json' \
+  -H 'Cookie: token=abc123' \
+  -d '{
+    "firstname" : "QATesterFirstnam",
+    "lastname" : "QAtesterLastName"
+}'
+3.Navigate to authorization tab and make sure 
+a)you dont provide credentials to authorize the Patch request
+b)Leave it as blank
+4.Click send request button
+5.Verify if user is not able to perform PATCH request
+</t>
+  </si>
+  <si>
+    <t>1.Sucessful login
+2.Import request successful
+3.No authorization provided for the patch request
+4.Successful action
+5.The patch request must fail and status code must be 403</t>
+  </si>
+  <si>
+    <t>Verify if user is able to perform PATCH request by providing JSON request body as blank</t>
+  </si>
+  <si>
+    <t>Verify is user is getting correct error code for failed PATCH request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login  to POSTMAN tool
+2.Import the curl command using raw text format
+curl -X PUT \
+  https://restful-booker.herokuapp.com/booking/938 \
+  -H 'Content-Type: application/json' \
+  -H 'Accept: application/json' \
+  -H 'Cookie: token=abc123' \
+  -d '{
+    ""firstname"" : ""QATesterFirstnam"",
+    ""lastname"" : ""QAtesterLastName""
+}'
+3.Navigate to authorization tab and make sure 
+a)you dont provide credentials to authorize the Patch request
+b)Leave it as blank
+4.Click send request button
+5.Verify is user is getting correct error code for failed PATCH request
+6.Provide authorization and change the input field name against the requirement and send the patch request
+{
+    "Helloname" : "QA",
+    "middlename" : "QAlast"
+}
+7.Verify the status code
+</t>
+  </si>
+  <si>
+    <t>1.Sucessful login
+2.Import request successful
+3.No authorization provided for the patch request
+4.Successful action
+5.The patch request must fail and status code must be 403
+6.Patch request must fail
+7.Status code must be 400 for incorrect syntax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login  to POSTMAN tool
+2.Import the curl command using raw text format
+curl -X DELETE \
+  https://restful-booker.herokuapp.com/booking/2952 \
+  -H 'Content-Type: application/json' \
+  -H 'Cookie: token=abc123'
+3.Click send request
+4.Verify if user is able to delete the booking successfully
+5.Verify the status code
+</t>
+  </si>
+  <si>
+    <t>1.Successful login
+2.Import request successful
+3.User must be able to perform SEND rrequest
+4.The user must be able delete booking id 2952 successfully if it is not previously deleted
+5.The status code must be 200</t>
+  </si>
+  <si>
+    <t>Verify if user is able to delete all bookings</t>
+  </si>
+  <si>
+    <t>1.Sucessful login
+2.Import request successful
+3.No authorization provided for the patch request
+4.Successful action
+5.The patch request must fail and status code must be 404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Successful Login
+2.Successful Navigation
+3.The Response code must be 500
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,16 +913,70 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Lato"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Lato, Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -148,19 +984,264 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{C175B1F0-9515-47C4-A7BD-DF11DE09B444}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="7" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Main-style" pivot="0" count="3" xr9:uid="{EC4F79D6-F5E5-4EFA-B80A-2A312081BF68}">
+      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="secondRowStripe" dxfId="18"/>
+    </tableStyle>
+    <tableStyle name="General CRUD-style" pivot="0" count="3" xr9:uid="{E0D1783C-60DE-46B7-AA87-0CF2DD0FD308}">
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="firstRowStripe" dxfId="16"/>
+      <tableStyleElement type="secondRowStripe" dxfId="15"/>
+    </tableStyle>
+    <tableStyle name="Create Booking-style" pivot="0" count="3" xr9:uid="{547E5A3A-E5B4-4936-9161-70B16DC7CD63}">
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="secondRowStripe" dxfId="12"/>
+    </tableStyle>
+    <tableStyle name="SOAP Request-style" pivot="0" count="3" xr9:uid="{67683F38-FDBA-4FEE-98D9-3CC596402D91}">
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="secondRowStripe" dxfId="9"/>
+    </tableStyle>
+    <tableStyle name="Full Update and Partial Update,-style" pivot="0" count="3" xr9:uid="{50D901EF-7384-4A6A-872C-C91FF8654905}">
+      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="secondRowStripe" dxfId="6"/>
+    </tableStyle>
+    <tableStyle name="Soap UI Testcase-style" pivot="0" count="3" xr9:uid="{BD6B4D4A-B08B-4B00-8F51-617F79105D96}">
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
+    </tableStyle>
+    <tableStyle name="Integration Scenarios-style" pivot="0" count="3" xr9:uid="{ADCFFD79-7A5D-44FA-B114-9F22BE4213EA}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -469,210 +1550,796 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA20686-FE2C-4240-9238-598AD69A5031}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="77.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="77.44140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="8"/>
+    <col min="4" max="4" width="48.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="50.6640625" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="7" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="178.2">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="81">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="115.2">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="96" customHeight="1">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="86.4">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="86.4">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="86.4">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="86.4">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="86.4">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="86.4">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="86.4">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="86.4">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="86.4">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="86.4">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="86.4">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="86.4">
+      <c r="A18" s="8">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="86.4">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="B19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="86.4">
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="86.4">
+      <c r="A21" s="8">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="86.4">
+      <c r="A22" s="8">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A23" s="8">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A24" s="8">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A25" s="8">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A26" s="8">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A27" s="8">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="8">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A29" s="8">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A30" s="8">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A31" s="8">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A32" s="8">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A33" s="12">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A34" s="12">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A35" s="12">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A36" s="12">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A37" s="12">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A38" s="12">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A39" s="12">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A40" s="12">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A41" s="12">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A42" s="12">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A43" s="12">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A44" s="12">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A45" s="12">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A46" s="12">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A47" s="12">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A48" s="12">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>